--- a/Excel_profile_templates/Profile Template - CC Practitioner.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Practitioner.xlsx
@@ -17,7 +17,19 @@
     <t>Select</t>
   </si>
   <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Not Used</t>
   </si>
   <si>
     <t>Card.</t>
@@ -63,24 +75,12 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>Required</t>
-  </si>
-  <si>
     <t>- implicitRules</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Not Used</t>
-  </si>
-  <si>
     <t>Uri</t>
   </si>
   <si>
@@ -94,7 +94,7 @@
   </si>
   <si>
     <t>Language of the resource content
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- text</t>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>usual : official : temp : secondary (If known)
-Binding (required): Identifies the purpose for this identifier, if known . ( http://hl7.org/fhir/stu3/valueset-identifier-use.html )</t>
+Binding (required): Identifies the purpose for this identifier, if known. [IdentifierUse](http://hl7.org/fhir/stu3/valueset-identifier-use.html)</t>
   </si>
   <si>
     <t>- - type</t>
@@ -167,7 +167,7 @@
   </si>
   <si>
     <t>Description of identifier
-Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. ( http://hl7.org/fhir/stu3/valueset-identifier-type.html )</t>
+Binding (extensible): A coded type for an identifier that can be used to determine which identifier to use for a specific purpose. [Identifier Type Codes](http://hl7.org/fhir/stu3/valueset-identifier-type.html)</t>
   </si>
   <si>
     <t>- - system</t>
@@ -177,7 +177,7 @@
   </si>
   <si>
     <t>The namespace for the identifier value
-Fixed Value: https://fhir.nhs.uk/Id/sds-user-id</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'https://fhir.nhs.uk/Id/sds-user-id'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- - value</t>
@@ -210,7 +210,7 @@
   </si>
   <si>
     <t>The namespace for the identifier value
-Fixed Value: https://fhir.nhs.uk/Id/sds-role-profile-id</t>
+&lt;font color='red'&gt;The value attribute of the profile element MUST contain the value 'https://fhir.nhs.uk/Id/sds-role-profile-id'&lt;/font&gt;</t>
   </si>
   <si>
     <t>- active</t>
@@ -233,7 +233,7 @@
   </si>
   <si>
     <t>usual : official : temp : nickname : anonymous : old : maiden
-Binding (required): The use of a human name ( http://hl7.org/fhir/stu3/valueset-name-use.html )</t>
+Binding (required): The use of a human name [NameUse](http://hl7.org/fhir/stu3/valueset-name-use.html)</t>
   </si>
   <si>
     <t>- - text</t>
@@ -296,14 +296,14 @@
   </si>
   <si>
     <t>phone : fax : email : pager : url : sms : other
-Binding (required): Telecommunications form for contact point ( http://hl7.org/fhir/stu3/valueset-contact-point-system.html )</t>
+Binding (required): Telecommunications form for contact point [ContactPointSystem](http://hl7.org/fhir/stu3/valueset-contact-point-system.html)</t>
   </si>
   <si>
     <t>The actual contact point details</t>
   </si>
   <si>
     <t>home : work : temp : old : mobile - purpose of this contact point
-Binding (required): Use of contact point ( http://hl7.org/fhir/stu3/valueset-contact-point-use.html )</t>
+Binding (required): Use of contact point [ContactPointUse](http://hl7.org/fhir/stu3/valueset-contact-point-use.html)</t>
   </si>
   <si>
     <t>- - rank</t>
@@ -329,11 +329,11 @@
   </si>
   <si>
     <t>home : work : temp : old - purpose of this address
-Binding (required): The use of an address ( http://hl7.org/fhir/stu3/valueset-address-use.html )</t>
+Binding (required): The use of an address [AddressUse](http://hl7.org/fhir/stu3/valueset-address-use.html)</t>
   </si>
   <si>
     <t>postal : physical : both
-Binding (required): The type of an address (physical / postal) ( http://hl7.org/fhir/stu3/valueset-address-type.html )</t>
+Binding (required): The type of an address (physical / postal) [AddressType](http://hl7.org/fhir/stu3/valueset-address-type.html)</t>
   </si>
   <si>
     <t>Text representation of the address</t>
@@ -383,7 +383,7 @@
   </si>
   <si>
     <t>male : female : other : unknown
-Binding (required): The gender of a person used for administrative purposes. (https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AdministrativeGender-1 )</t>
+Binding (required): The gender of a person used for administrative purposes. [CareConnect-AdministrativeGender-1](https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-AdministrativeGender-1)</t>
   </si>
   <si>
     <t>- birthDate</t>
@@ -409,14 +409,14 @@
   </si>
   <si>
     <t>Mime type of the content, with charset etc.
-Binding (required): The mime type of an attachment. Any valid mime type is allowed. ( http://www.rfc-editor.org/bcp/bcp13.txt )</t>
+Binding (required): The mime type of an attachment. Any valid mime type is allowed. [Mime Type](http://www.rfc-editor.org/bcp/bcp13.txt)</t>
   </si>
   <si>
     <t>- - language</t>
   </si>
   <si>
     <t>Human language of the content (BCP-47)
-Binding (extensible): A human language. ( http://hl7.org/fhir/stu3/valueset-languages.html )</t>
+Binding (extensible): A human language. [Common Languages](http://hl7.org/fhir/stu3/valueset-languages.html)</t>
   </si>
   <si>
     <t>- - data</t>
@@ -508,7 +508,7 @@
   </si>
   <si>
     <t>Coded representation of the qualification
-Binding (example): Specific qualification the practitioner has to provide a service (http://hl7.org/fhir/ValueSet/v2-2.7-0360 )</t>
+Binding (example): Specific qualification the practitioner has to provide a service [v2 table 0360, Version 2.7](http://hl7.org/fhir/ValueSet/v2-2.7-0360)</t>
   </si>
   <si>
     <t>- - - coding</t>
@@ -631,10 +631,9 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="8.0"/>
       <color rgb="FF474747"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
@@ -717,7 +716,7 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -778,74 +777,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>0</v>
@@ -862,7 +861,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>0</v>
@@ -879,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>0</v>
@@ -965,7 +964,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>0</v>
@@ -982,7 +981,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>0</v>
@@ -990,7 +989,7 @@
       <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -999,7 +998,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>0</v>
@@ -1050,7 +1049,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>0</v>
@@ -1067,7 +1066,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>0</v>
@@ -1114,7 +1113,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>0</v>
@@ -1122,7 +1121,7 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1131,7 +1130,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>0</v>
@@ -1182,7 +1181,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>0</v>
@@ -1199,7 +1198,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>0</v>
@@ -1229,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>0</v>
@@ -1263,7 +1262,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>0</v>
@@ -1280,7 +1279,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>0</v>
@@ -1297,7 +1296,7 @@
         <v>70</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>0</v>
@@ -1365,7 +1364,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>0</v>
@@ -1382,7 +1381,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>0</v>
@@ -1399,7 +1398,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>0</v>
@@ -1433,7 +1432,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>0</v>
@@ -1441,7 +1440,7 @@
       <c r="D40" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1450,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>0</v>
@@ -1458,7 +1457,7 @@
       <c r="D41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1467,7 +1466,7 @@
         <v>43</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>0</v>
@@ -1475,7 +1474,7 @@
       <c r="D42" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="12" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1484,7 +1483,7 @@
         <v>90</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>0</v>
@@ -1501,7 +1500,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>0</v>
@@ -1518,7 +1517,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>0</v>
@@ -1535,7 +1534,7 @@
         <v>82</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>0</v>
@@ -1569,7 +1568,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>0</v>
@@ -1577,7 +1576,7 @@
       <c r="D48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1586,7 +1585,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>0</v>
@@ -1594,7 +1593,7 @@
       <c r="D49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1603,7 +1602,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>0</v>
@@ -1637,7 +1636,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>0</v>
@@ -1654,7 +1653,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>0</v>
@@ -1671,7 +1670,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>0</v>
@@ -1688,7 +1687,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>0</v>
@@ -1705,7 +1704,7 @@
         <v>110</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>0</v>
@@ -1722,7 +1721,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>0</v>
@@ -1739,7 +1738,7 @@
         <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>0</v>
@@ -1756,7 +1755,7 @@
         <v>82</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>0</v>
@@ -1773,7 +1772,7 @@
         <v>113</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>0</v>
@@ -1790,7 +1789,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>0</v>
@@ -1824,7 +1823,7 @@
         <v>121</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>0</v>
@@ -1832,7 +1831,7 @@
       <c r="D63" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1841,7 +1840,7 @@
         <v>123</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>0</v>
@@ -1849,7 +1848,7 @@
       <c r="D64" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1858,7 +1857,7 @@
         <v>125</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>0</v>
@@ -1875,7 +1874,7 @@
         <v>128</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>0</v>
@@ -1892,7 +1891,7 @@
         <v>130</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>0</v>
@@ -1909,7 +1908,7 @@
         <v>133</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>0</v>
@@ -1926,7 +1925,7 @@
         <v>135</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>0</v>
@@ -1943,7 +1942,7 @@
         <v>137</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>0</v>
@@ -2011,7 +2010,7 @@
         <v>146</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>0</v>
@@ -2019,7 +2018,7 @@
       <c r="D74" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2028,7 +2027,7 @@
         <v>147</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>0</v>
@@ -2045,7 +2044,7 @@
         <v>148</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>0</v>
@@ -2062,7 +2061,7 @@
         <v>150</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>0</v>
@@ -2079,7 +2078,7 @@
         <v>151</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>0</v>
@@ -2096,7 +2095,7 @@
         <v>152</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>0</v>
@@ -2134,7 +2133,7 @@
       <c r="D81" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2160,7 +2159,7 @@
         <v>158</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>0</v>
@@ -2177,7 +2176,7 @@
         <v>160</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>0</v>
@@ -2194,7 +2193,7 @@
         <v>162</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>0</v>
@@ -2211,7 +2210,7 @@
         <v>164</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>0</v>
@@ -2228,7 +2227,7 @@
         <v>166</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>0</v>
@@ -2245,7 +2244,7 @@
         <v>168</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>0</v>
@@ -2262,7 +2261,7 @@
         <v>54</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>0</v>
@@ -2279,7 +2278,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>0</v>
@@ -2296,7 +2295,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>0</v>
@@ -2313,7 +2312,7 @@
         <v>171</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>0</v>
@@ -2343,7 +2342,7 @@
         <v>173</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>0</v>
@@ -2360,7 +2359,7 @@
         <v>175</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>0</v>
@@ -5120,95 +5119,88 @@
     <hyperlink r:id="rId3" location="Meta" ref="D4"/>
     <hyperlink r:id="rId4" location="uri" ref="D5"/>
     <hyperlink r:id="rId5" location="code" ref="D6"/>
-    <hyperlink r:id="rId6" ref="E6"/>
-    <hyperlink r:id="rId7" location="Narrative" ref="D7"/>
-    <hyperlink r:id="rId8" ref="D8"/>
-    <hyperlink r:id="rId9" location="Extension" ref="D10"/>
-    <hyperlink r:id="rId10" location="identifier" ref="D11"/>
-    <hyperlink r:id="rId11" location="identifier" ref="D12"/>
-    <hyperlink r:id="rId12" location="code" ref="D13"/>
-    <hyperlink r:id="rId13" location="codeableconcept" ref="D14"/>
-    <hyperlink r:id="rId14" ref="E14"/>
-    <hyperlink r:id="rId15" location="uri" ref="D15"/>
-    <hyperlink r:id="rId16" location="string" ref="D16"/>
-    <hyperlink r:id="rId17" location="period" ref="D17"/>
-    <hyperlink r:id="rId18" location="identifier" ref="D20"/>
-    <hyperlink r:id="rId19" location="code" ref="D21"/>
-    <hyperlink r:id="rId20" location="codeableconcept" ref="D22"/>
-    <hyperlink r:id="rId21" ref="E22"/>
-    <hyperlink r:id="rId22" location="uri" ref="D23"/>
-    <hyperlink r:id="rId23" location="string" ref="D24"/>
-    <hyperlink r:id="rId24" location="period" ref="D25"/>
-    <hyperlink r:id="rId25" location="boolean" ref="D28"/>
-    <hyperlink r:id="rId26" location="humanname" ref="D29"/>
-    <hyperlink r:id="rId27" location="code" ref="D30"/>
-    <hyperlink r:id="rId28" location="string" ref="D31"/>
-    <hyperlink r:id="rId29" location="string" ref="D32"/>
-    <hyperlink r:id="rId30" location="string" ref="D33"/>
-    <hyperlink r:id="rId31" location="string" ref="D34"/>
-    <hyperlink r:id="rId32" location="string" ref="D35"/>
-    <hyperlink r:id="rId33" location="period" ref="D36"/>
-    <hyperlink r:id="rId34" location="datetime" ref="D37"/>
-    <hyperlink r:id="rId35" location="datetime" ref="D38"/>
-    <hyperlink r:id="rId36" location="contactpoint" ref="D39"/>
-    <hyperlink r:id="rId37" location="code" ref="D40"/>
-    <hyperlink r:id="rId38" location="string" ref="D41"/>
-    <hyperlink r:id="rId39" location="code" ref="D42"/>
-    <hyperlink r:id="rId40" location="positiveint" ref="D43"/>
-    <hyperlink r:id="rId41" location="period" ref="D44"/>
-    <hyperlink r:id="rId42" location="datetime" ref="D45"/>
-    <hyperlink r:id="rId43" location="datetime" ref="D46"/>
-    <hyperlink r:id="rId44" location="address" ref="D47"/>
-    <hyperlink r:id="rId45" location="code" ref="D48"/>
-    <hyperlink r:id="rId46" location="code" ref="D49"/>
-    <hyperlink r:id="rId47" location="string" ref="D50"/>
-    <hyperlink r:id="rId48" location="string" ref="D51"/>
-    <hyperlink r:id="rId49" location="string" ref="D52"/>
-    <hyperlink r:id="rId50" location="string" ref="D53"/>
-    <hyperlink r:id="rId51" location="string" ref="D54"/>
-    <hyperlink r:id="rId52" location="string" ref="D55"/>
-    <hyperlink r:id="rId53" location="string" ref="D56"/>
-    <hyperlink r:id="rId54" location="period" ref="D57"/>
-    <hyperlink r:id="rId55" location="datetime" ref="D58"/>
-    <hyperlink r:id="rId56" location="datetime" ref="D59"/>
-    <hyperlink r:id="rId57" location="code" ref="D60"/>
-    <hyperlink r:id="rId58" location="date" ref="D61"/>
-    <hyperlink r:id="rId59" location="attachment" ref="D62"/>
-    <hyperlink r:id="rId60" location="code" ref="D63"/>
-    <hyperlink r:id="rId61" ref="E63"/>
-    <hyperlink r:id="rId62" location="code" ref="D64"/>
-    <hyperlink r:id="rId63" ref="E64"/>
-    <hyperlink r:id="rId64" location="base64binary" ref="D65"/>
-    <hyperlink r:id="rId65" location="uri" ref="D66"/>
-    <hyperlink r:id="rId66" location="unsignedint" ref="D67"/>
-    <hyperlink r:id="rId67" location="base64binary" ref="D68"/>
-    <hyperlink r:id="rId68" location="string" ref="D69"/>
-    <hyperlink r:id="rId69" location="datetime" ref="D70"/>
-    <hyperlink r:id="rId70" ref="D71"/>
-    <hyperlink r:id="rId71" location="Extension" ref="D72"/>
-    <hyperlink r:id="rId72" location="identifier" ref="D73"/>
-    <hyperlink r:id="rId73" location="code" ref="D74"/>
-    <hyperlink r:id="rId74" location="codeableconcept" ref="D75"/>
-    <hyperlink r:id="rId75" ref="E75"/>
-    <hyperlink r:id="rId76" location="uri" ref="D76"/>
-    <hyperlink r:id="rId77" location="string" ref="D77"/>
-    <hyperlink r:id="rId78" location="period" ref="D78"/>
-    <hyperlink r:id="rId79" location="codeableconcept" ref="D81"/>
-    <hyperlink r:id="rId80" ref="E81"/>
-    <hyperlink r:id="rId81" location="coding" ref="D82"/>
-    <hyperlink r:id="rId82" location="uri" ref="D83"/>
-    <hyperlink r:id="rId83" location="string" ref="D84"/>
-    <hyperlink r:id="rId84" location="code" ref="D85"/>
-    <hyperlink r:id="rId85" location="string" ref="D86"/>
-    <hyperlink r:id="rId86" location="boolean" ref="D87"/>
-    <hyperlink r:id="rId87" location="string" ref="D88"/>
-    <hyperlink r:id="rId88" location="period" ref="D89"/>
-    <hyperlink r:id="rId89" location="datetime" ref="D90"/>
-    <hyperlink r:id="rId90" location="datetime" ref="D91"/>
-    <hyperlink r:id="rId91" location="string" ref="D94"/>
-    <hyperlink r:id="rId92" location="identifier" ref="D95"/>
+    <hyperlink r:id="rId6" location="Narrative" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" location="Extension" ref="D10"/>
+    <hyperlink r:id="rId9" location="identifier" ref="D11"/>
+    <hyperlink r:id="rId10" location="identifier" ref="D12"/>
+    <hyperlink r:id="rId11" location="code" ref="D13"/>
+    <hyperlink r:id="rId12" location="codeableconcept" ref="D14"/>
+    <hyperlink r:id="rId13" location="uri" ref="D15"/>
+    <hyperlink r:id="rId14" location="string" ref="D16"/>
+    <hyperlink r:id="rId15" location="period" ref="D17"/>
+    <hyperlink r:id="rId16" location="identifier" ref="D20"/>
+    <hyperlink r:id="rId17" location="code" ref="D21"/>
+    <hyperlink r:id="rId18" location="codeableconcept" ref="D22"/>
+    <hyperlink r:id="rId19" location="uri" ref="D23"/>
+    <hyperlink r:id="rId20" location="string" ref="D24"/>
+    <hyperlink r:id="rId21" location="period" ref="D25"/>
+    <hyperlink r:id="rId22" location="boolean" ref="D28"/>
+    <hyperlink r:id="rId23" location="humanname" ref="D29"/>
+    <hyperlink r:id="rId24" location="code" ref="D30"/>
+    <hyperlink r:id="rId25" location="string" ref="D31"/>
+    <hyperlink r:id="rId26" location="string" ref="D32"/>
+    <hyperlink r:id="rId27" location="string" ref="D33"/>
+    <hyperlink r:id="rId28" location="string" ref="D34"/>
+    <hyperlink r:id="rId29" location="string" ref="D35"/>
+    <hyperlink r:id="rId30" location="period" ref="D36"/>
+    <hyperlink r:id="rId31" location="datetime" ref="D37"/>
+    <hyperlink r:id="rId32" location="datetime" ref="D38"/>
+    <hyperlink r:id="rId33" location="contactpoint" ref="D39"/>
+    <hyperlink r:id="rId34" location="code" ref="D40"/>
+    <hyperlink r:id="rId35" location="string" ref="D41"/>
+    <hyperlink r:id="rId36" location="code" ref="D42"/>
+    <hyperlink r:id="rId37" location="positiveint" ref="D43"/>
+    <hyperlink r:id="rId38" location="period" ref="D44"/>
+    <hyperlink r:id="rId39" location="datetime" ref="D45"/>
+    <hyperlink r:id="rId40" location="datetime" ref="D46"/>
+    <hyperlink r:id="rId41" location="address" ref="D47"/>
+    <hyperlink r:id="rId42" location="code" ref="D48"/>
+    <hyperlink r:id="rId43" location="code" ref="D49"/>
+    <hyperlink r:id="rId44" location="string" ref="D50"/>
+    <hyperlink r:id="rId45" location="string" ref="D51"/>
+    <hyperlink r:id="rId46" location="string" ref="D52"/>
+    <hyperlink r:id="rId47" location="string" ref="D53"/>
+    <hyperlink r:id="rId48" location="string" ref="D54"/>
+    <hyperlink r:id="rId49" location="string" ref="D55"/>
+    <hyperlink r:id="rId50" location="string" ref="D56"/>
+    <hyperlink r:id="rId51" location="period" ref="D57"/>
+    <hyperlink r:id="rId52" location="datetime" ref="D58"/>
+    <hyperlink r:id="rId53" location="datetime" ref="D59"/>
+    <hyperlink r:id="rId54" location="code" ref="D60"/>
+    <hyperlink r:id="rId55" location="date" ref="D61"/>
+    <hyperlink r:id="rId56" location="attachment" ref="D62"/>
+    <hyperlink r:id="rId57" location="code" ref="D63"/>
+    <hyperlink r:id="rId58" location="code" ref="D64"/>
+    <hyperlink r:id="rId59" location="base64binary" ref="D65"/>
+    <hyperlink r:id="rId60" location="uri" ref="D66"/>
+    <hyperlink r:id="rId61" location="unsignedint" ref="D67"/>
+    <hyperlink r:id="rId62" location="base64binary" ref="D68"/>
+    <hyperlink r:id="rId63" location="string" ref="D69"/>
+    <hyperlink r:id="rId64" location="datetime" ref="D70"/>
+    <hyperlink r:id="rId65" ref="D71"/>
+    <hyperlink r:id="rId66" location="Extension" ref="D72"/>
+    <hyperlink r:id="rId67" location="identifier" ref="D73"/>
+    <hyperlink r:id="rId68" location="code" ref="D74"/>
+    <hyperlink r:id="rId69" location="codeableconcept" ref="D75"/>
+    <hyperlink r:id="rId70" location="uri" ref="D76"/>
+    <hyperlink r:id="rId71" location="string" ref="D77"/>
+    <hyperlink r:id="rId72" location="period" ref="D78"/>
+    <hyperlink r:id="rId73" location="codeableconcept" ref="D81"/>
+    <hyperlink r:id="rId74" location="coding" ref="D82"/>
+    <hyperlink r:id="rId75" location="uri" ref="D83"/>
+    <hyperlink r:id="rId76" location="string" ref="D84"/>
+    <hyperlink r:id="rId77" location="code" ref="D85"/>
+    <hyperlink r:id="rId78" location="string" ref="D86"/>
+    <hyperlink r:id="rId79" location="boolean" ref="D87"/>
+    <hyperlink r:id="rId80" location="string" ref="D88"/>
+    <hyperlink r:id="rId81" location="period" ref="D89"/>
+    <hyperlink r:id="rId82" location="datetime" ref="D90"/>
+    <hyperlink r:id="rId83" location="datetime" ref="D91"/>
+    <hyperlink r:id="rId84" location="string" ref="D94"/>
+    <hyperlink r:id="rId85" location="identifier" ref="D95"/>
   </hyperlinks>
-  <drawing r:id="rId93"/>
+  <drawing r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -5229,22 +5221,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
